--- a/biology/Médecine/Frederick_Andermann/Frederick_Andermann.xlsx
+++ b/biology/Médecine/Frederick_Andermann/Frederick_Andermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frederick Andermann (né le 26 septembre 1930 Cernăuți (Royaume de Roumanie) et mort le 16 juin 2019 Montréal (Québec)[1]) est un neuropédiatre canadien. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederick Andermann (né le 26 septembre 1930 Cernăuți (Royaume de Roumanie) et mort le 16 juin 2019 Montréal (Québec)) est un neuropédiatre canadien. 
 Il est reconnu mondialement pour ses travaux sur l'épilepsie. Il apporte une contribution importante et durable aux soins des enfants atteints de troubles neurologiques au Canada, grâce à ses écrits et à son enseignement. 
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né en 1930 à Tchernivtsi, appartenant alors à la Roumanie, puis à l'Ukraine. Quand la région est annexée par l'Union soviétique en 1940, sa famille démenage en premier à Bucarest, puis en Suisse et la France (Paris), avant d'immigrer au Canada en 1950. Là, il étudie la médecine à l'Université de Montréal, puis la neurologie à l'Institut et hôpital neurologiques de Montréal[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né en 1930 à Tchernivtsi, appartenant alors à la Roumanie, puis à l'Ukraine. Quand la région est annexée par l'Union soviétique en 1940, sa famille démenage en premier à Bucarest, puis en Suisse et la France (Paris), avant d'immigrer au Canada en 1950. Là, il étudie la médecine à l'Université de Montréal, puis la neurologie à l'Institut et hôpital neurologiques de Montréal. 
 Il était professeur au Département de neurologie, neurochirurgie et pédiatrie de l'Université McGill à Montréal ainsi que le directeur de l'unité d'épilepsie et clinique de l'Institut et hôpital Neurologiques de Montréal pendant de nombreuses années.  Il était un membre fondateur, président et ancien président de La Ligue Canadienne contre l'épilepsie (LCCE), président de la Société Neurologique du Canada, de la Société canadienne pour le neurophysiologie clinique, de l'Association des neurologues pour enfants et de la Société EEG de canadienne est.  Dans la Ligue internationale contre l'épilepsie, il était président pour le détachement spécial sur le classification et le commission sur le classification et le terminologie entre 1993 et 1997 ; premier vice-président entre 2001 et 2005 ; et deuxième vice-président entre 2005 et 2009.
-Ses contributions dans le domaine de la neurologie sont multiples. En 1972[3] et 1986[4], avec sa femme Eva Andermann (aussi une neurologue et spécialiste d'épilepsie), et d'autres, il a décrit le syndrome d'Andermann qui a été baptisé de leur nom en leur honneur. Il est l'auteur de neuf livres et de plus de 500 articles scientifiques.
+Ses contributions dans le domaine de la neurologie sont multiples. En 1972 et 1986, avec sa femme Eva Andermann (aussi une neurologue et spécialiste d'épilepsie), et d'autres, il a décrit le syndrome d'Andermann qui a été baptisé de leur nom en leur honneur. Il est l'auteur de neuf livres et de plus de 500 articles scientifiques.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de sa carrière, il a reçu de nombreux prix et récompenses pour ses travaux et recherches. 
 </t>
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En anglais
-Andermann F, Lugaresi E, eds. Migraine and Epilepsy. Boston – Londres – Durban, et al, Butterworth 1987
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Andermann F, Lugaresi E, eds. Migraine and Epilepsy. Boston – Londres – Durban, et al, Butterworth 1987
 Andermann F, Rasmussen T, eds. Chronic Encephalitis and Epilepsy. Rasmussen’s Syndrome. Boston – Londres – Oxford, Butterworth-Heinemann 1991
 Andermann F, Beaumanoir A, Mira L, et al, eds. Occipital Seizures and Epilepsies in Children. Colloquium of the Pierfranco e Luisa Mariano Foundation. Mariana Foundation Pediatric Neurology Series: 1. Londres – Paris – Rome, J. Libbey 1993
 Shorvon SD, Fish DR, Andermann F, Bydder GM, Stefan H, eds. Magnetic Resonance Scanning and Epilepsy. Proceedings of a NATO Advanced Research Workshop on Advanced Magnetic Resonance and Epilepsy, held October 1-3, 1992, in Chalfont St. Peter, Buckinghamshire, United Kingdom (NATO ASI Series; Series A: Life Sciences, Vol 264). New York – London, Plenum Press (New York, Springer Science + Business Media) 1994
